--- a/TestData/BirthDay.xlsx
+++ b/TestData/BirthDay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flowers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
   <si>
     <t>Birthday Flowers Online</t>
   </si>
@@ -252,105 +252,318 @@
     <t>//a[@id='#birthdaymenu']</t>
   </si>
   <si>
+    <t>//h1[text()='Birthday Flowers Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Premium Flowers Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Roses for Birthday Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Lilies for Birthday']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Orchids Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Carnations Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Mixed Flowers Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Exotic Flowers']</t>
+  </si>
+  <si>
+    <t>Birthday Decoration Services</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Plants for Birthday']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Premium Plants']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Bamboo Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Bonsai Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Money Plant Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Flowering Plants']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Air Purifying Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Indoor Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Outdoor Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Terrariums Plants']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Spiritual and Vastu Plants Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Herbs and Medicinal Plants']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Combos Bestsellers Birthday']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Combos']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Flower Bouquet with Cake Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Flowers and Chocolates Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Flowers &amp; Teddy Bears Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Flowers &amp; Cards Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Rose Combos']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Plant Combos']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Personalised Gifts Combos']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Cakes N plants']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Send Flowers &amp; Sweets for Birthday']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Kids Online']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Him']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Her']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Online Birthday Gifts for Boyfriend']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Girlfriend']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Online Birthday Gifts for Husband']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Wife']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Online Birthday Gifts for Brother']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Sister']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Father']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Birthday Gifts for Mother']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Online Birthday Gifts for Friend']</t>
+  </si>
+  <si>
+    <t>//h1[text()='Online Birthday Gifts for Boss']</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[1]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[2]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[3]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[4]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[5]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[6]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[7]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[8]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[9]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[10]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[11]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Cakes']//parent::section)[2]/ul/li/a)[12]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[1]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[2]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[3]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[4]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[5]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[6]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[7]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[8]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[9]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[10]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[11]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Plants']//parent::section)[1]/ul/li/a)[12]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[1]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[2]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[3]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[4]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[5]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[6]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[7]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[8]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[9]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[10]</t>
+  </si>
+  <si>
+    <t>(((//h3[text()='Combos']//parent::section))[2]/ul/li/a)[11]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[1]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[2]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[3]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[4]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[5]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[6]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[7]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[8]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[9]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[10]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[11]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[12]</t>
+  </si>
+  <si>
+    <t>((//h3[text()='Recipient']//parent::section)[1]/ul/li/a)[13]</t>
+  </si>
+  <si>
     <t>(//div[@id='birthdaymenu']//section[1]//a)[1]</t>
   </si>
   <si>
-    <t>//h1[text()='Birthday Flowers Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Premium Flowers Online']</t>
-  </si>
-  <si>
     <t>(//div[@id='birthdaymenu']//section[1]//a)[2]</t>
   </si>
   <si>
     <t>(//div[@id='birthdaymenu']//section[1]//a)[3]</t>
   </si>
   <si>
-    <t>(//div[@id='birthdaymenu']//section[1]//a)[4]</t>
-  </si>
-  <si>
     <t>(//div[@id='birthdaymenu']//section[1]//a)[5]</t>
   </si>
   <si>
-    <t>(//div[@id='birthdaymenu']//section[1]//a)[6]</t>
-  </si>
-  <si>
-    <t>//h1[text()='Roses for Birthday Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Lilies for Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Orchids Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Carnations Online']</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[2]//a)[3]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[2]//a)[4]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[2]//a)[9]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[2]//a)[10]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[2]//a)[11]</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Eggless Cakes for Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Black Forest Cakes Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Premium Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Photo Cakes for Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Designer Cakes for Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Cartoon Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Barbie Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Minion Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Spiderman Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Mickey Mouse Cakes Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Chocolate Cakes']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Mixed Flowers Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Exotic Flowers']</t>
-  </si>
-  <si>
-    <t>//*[@id="listingcontainer"]/div/section/div[1]/section[1]/h1</t>
+    <t>(//div[@id='birthdaymenu']//section[1]//a)[7]</t>
+  </si>
+  <si>
+    <t>(//div[@id='birthdaymenu']//section[1]//a)[8]</t>
+  </si>
+  <si>
+    <t>//div[@id='category-skeleton']/following-sibling::div/h1</t>
+  </si>
+  <si>
+    <t>//div[@id='birthdaymenu']/div/section[1]/ul/li[6]/a</t>
+  </si>
+  <si>
+    <t>//*[@id='birthdaymenu']/div/section[1]/ul/li[4]/a</t>
   </si>
   <si>
     <t>(//div[@id='birthdaymenu']//section[3]//a)[1]</t>
   </si>
   <si>
+    <t>Gifts N Guitarist Service</t>
+  </si>
+  <si>
     <t>(//div[@id='birthdaymenu']//section[3]//a)[2]</t>
   </si>
   <si>
@@ -396,295 +609,7 @@
     <t>(//div[@id='birthdaymenu']//section[3]//a)[16]</t>
   </si>
   <si>
-    <t>//h1[text()='Birthday Premium Gifts']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Personalised Gifts']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Personalised Chocolates Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Chocolates Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Decoration Services']</t>
-  </si>
-  <si>
-    <t>Birthday Decoration Services</t>
-  </si>
-  <si>
-    <t>//h1[text()='Book Experiences']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Perfumes Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Handbag Gifts Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Watches Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Jewellery Gifts Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Cushions']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Mugs']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Bottle Lamps']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Accessories Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Buddha Collection']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Plants for Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Premium Plants']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Bamboo Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Bonsai Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Money Plant Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Flowering Plants']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Air Purifying Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Indoor Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Outdoor Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Terrariums Plants']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Spiritual and Vastu Plants Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Herbs and Medicinal Plants']</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[1]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[2]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[3]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[4]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[5]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[6]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[7]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[8]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[9]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[10]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[11]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[4]//a)[12]</t>
-  </si>
-  <si>
-    <t>//h1[text()='Combos Bestsellers Birthday']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Combos']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Flower Bouquet with Cake Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Flowers and Chocolates Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Flowers &amp; Teddy Bears Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Flowers &amp; Cards Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Rose Combos']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Plant Combos']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Personalised Gifts Combos']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Cakes N plants']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Send Flowers &amp; Sweets for Birthday']</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[1]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[2]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[3]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[4]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[5]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[6]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[7]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[8]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[9]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[10]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[5]//a)[11]</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Kids Online']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Him']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Her']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Online Birthday Gifts for Boyfriend']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Girlfriend']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Online Birthday Gifts for Husband']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Wife']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Online Birthday Gifts for Brother']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Sister']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Father']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Birthday Gifts for Mother']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Online Birthday Gifts for Friend']</t>
-  </si>
-  <si>
-    <t>//h1[text()='Online Birthday Gifts for Boss']</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[1]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[2]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[3]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[4]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[5]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[6]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[7]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[8]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[9]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[10]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[11]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[12]</t>
-  </si>
-  <si>
-    <t>(//div[@id='birthdaymenu']//section[6]//a)[13]</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[1]/ul/li[7]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[1]/ul/li[8]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[5]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[6]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[7]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[8]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="birthdaymenu"]/div/section[2]/ul/li[12]/a</t>
+    <t>(//div[@id='birthdaymenu']//section[3]//a)[17]</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +988,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,10 +1017,10 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1106,10 +1031,10 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1120,10 +1045,10 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1134,10 +1059,10 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1148,10 +1073,10 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -1162,10 +1087,10 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1176,10 +1101,10 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1190,10 +1115,10 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -1208,15 +1133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1239,10 +1164,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1253,10 +1178,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1267,10 +1192,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1281,10 +1206,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -1295,10 +1220,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1309,10 +1234,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1323,10 +1248,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1337,10 +1262,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -1351,10 +1276,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1365,10 +1290,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -1379,10 +1304,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1393,10 +1318,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1409,16 +1334,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1442,10 +1367,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -1456,10 +1381,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -1470,10 +1395,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1484,10 +1409,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -1498,10 +1423,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -1512,13 +1437,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,10 +1451,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1540,10 +1465,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -1554,13 +1479,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,13 +1493,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,13 +1507,13 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,13 +1521,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,13 +1535,13 @@
         <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,13 +1549,13 @@
         <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,13 +1563,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,17 +1577,32 @@
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1671,13 +1611,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1701,10 +1641,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>35</v>
@@ -1715,10 +1655,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1729,10 +1669,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
@@ -1743,10 +1683,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -1757,10 +1697,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -1771,10 +1711,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -1785,10 +1725,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -1799,10 +1739,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>42</v>
@@ -1813,10 +1753,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
@@ -1827,10 +1767,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
@@ -1841,10 +1781,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -1855,10 +1795,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -1874,13 +1814,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -1904,10 +1844,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>47</v>
@@ -1918,10 +1858,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>48</v>
@@ -1932,10 +1872,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
@@ -1946,10 +1886,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -1960,10 +1900,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -1974,10 +1914,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
@@ -1988,10 +1928,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>53</v>
@@ -2002,10 +1942,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -2016,10 +1956,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -2030,10 +1970,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2044,10 +1984,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -2063,13 +2003,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2093,10 +2033,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
@@ -2107,10 +2047,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>59</v>
@@ -2121,10 +2061,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>60</v>
@@ -2135,10 +2075,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>61</v>
@@ -2149,10 +2089,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
@@ -2163,10 +2103,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
@@ -2177,10 +2117,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
@@ -2191,10 +2131,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -2205,10 +2145,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
@@ -2219,10 +2159,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
@@ -2233,10 +2173,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>68</v>
@@ -2247,10 +2187,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>69</v>
@@ -2261,10 +2201,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>70</v>
